--- a/cfs_3_0.75.xlsx
+++ b/cfs_3_0.75.xlsx
@@ -3057,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="W34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="W36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
         <v>3</v>
@@ -3285,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X37" t="n">
         <v>3</v>
@@ -3662,7 +3662,7 @@
         <v>71</v>
       </c>
       <c r="V42" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="W42" t="n">
         <v>3</v>
@@ -3738,7 +3738,7 @@
         <v>61</v>
       </c>
       <c r="V43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W43" t="n">
         <v>3</v>
@@ -3814,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="V44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W44" t="n">
         <v>3</v>
@@ -6140,7 +6140,7 @@
         <v>192557</v>
       </c>
       <c r="L75" t="n">
-        <v>235974.6</v>
+        <v>235974</v>
       </c>
       <c r="M75" t="n">
         <v>231416</v>
@@ -7006,13 +7006,13 @@
         <v>71</v>
       </c>
       <c r="V86" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W86" t="n">
         <v>3</v>
       </c>
       <c r="X86" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -7280,7 +7280,7 @@
         <v>235949</v>
       </c>
       <c r="L90" t="n">
-        <v>235974.6</v>
+        <v>235974</v>
       </c>
       <c r="M90" t="n">
         <v>235949</v>
@@ -7462,13 +7462,13 @@
         <v>61</v>
       </c>
       <c r="V92" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W92" t="n">
         <v>3</v>
       </c>
       <c r="X92" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7614,13 +7614,13 @@
         <v>61</v>
       </c>
       <c r="V94" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W94" t="n">
         <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
